--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2058389.03416782</v>
+        <v>2162622.742561266</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9713361.93993553</v>
+        <v>9722274.831187135</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.6607146442674</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>86.02391323015932</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>35.69234359116947</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>200.3155624761544</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>230.1832539220404</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.9220711724782</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>42.11490470286014</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>64.14647130913984</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>52.3355164089006</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>94.00928821139709</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>70.27226321267624</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>95.44509644451209</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417129</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.6849016609953</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54.84205284513268</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722628</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>194.7686697604218</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>100.9025715636462</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>47.84205650382022</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>1.594095449514225</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>59.67415913389035</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>122.2059282187658</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>172.3645574474261</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>54.63637568893558</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.2476086063444</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>33.38664646283016</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>80.88538973874932</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>211.1474991249032</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>45.17596778974989</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6324680438218387</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.98166197004282</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>9.570729811036772</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142962</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>192.7715349547541</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1572.164517693149</v>
+        <v>1797.459220126684</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1428.496703186272</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1070.231004579522</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649822</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379708</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X2" t="n">
-        <v>2348.903689733083</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1958.764357757271</v>
+        <v>2184.059060190806</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2262.298126874724</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>880.2242361621296</v>
+        <v>1296.192817233904</v>
       </c>
       <c r="C4" t="n">
-        <v>711.2880532342227</v>
+        <v>1127.256634305997</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>2060.788222079483</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1771.669884583321</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1516.985396377434</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621296</v>
+        <v>1516.985396377434</v>
       </c>
       <c r="X4" t="n">
-        <v>880.2242361621296</v>
+        <v>1516.985396377434</v>
       </c>
       <c r="Y4" t="n">
-        <v>880.2242361621296</v>
+        <v>1296.192817233904</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1879.829578210441</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1510.867061270029</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1510.867061270029</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1125.078808671785</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>714.0929038821773</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>299.0204537271738</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649822</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379708</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118628</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="Y5" t="n">
-        <v>1959.379186075721</v>
+        <v>2266.429418274563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4649,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>815.1011658822316</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="C7" t="n">
-        <v>815.1011658822316</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>131.3065318959611</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4759,16 +4761,16 @@
         <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.739181610489</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>996.7496307124713</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y7" t="n">
-        <v>996.7496307124713</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116517</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.413029176106</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>958.1473305693551</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>572.3590779711108</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>161.3731731815032</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180639</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>747.4506112757443</v>
+        <v>724.9564054771553</v>
       </c>
       <c r="C10" t="n">
-        <v>578.5144283478375</v>
+        <v>724.9564054771553</v>
       </c>
       <c r="D10" t="n">
-        <v>578.5144283478375</v>
+        <v>574.8397660648195</v>
       </c>
       <c r="E10" t="n">
-        <v>430.6013347654443</v>
+        <v>574.8397660648195</v>
       </c>
       <c r="F10" t="n">
-        <v>283.711387267534</v>
+        <v>427.9498185669091</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>260.2469819416281</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040962</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1446.505797040962</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.088627004001</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X10" t="n">
-        <v>929.0990761059841</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y10" t="n">
-        <v>929.0990761059841</v>
+        <v>906.604870307395</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,22 +5126,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>620.8230468926974</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>802.4715117229372</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5270,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.1060525954244</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038288</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179769</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570812</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487562</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510503</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854701</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648814</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611853</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138361</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703059</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.7243904253733</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253733</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y19" t="n">
-        <v>814.372855255613</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,31 +5764,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5835,22 +5837,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565524</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683104</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C22" t="n">
-        <v>465.5282911402533</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="23">
@@ -5975,25 +5977,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6069,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3173.601046153952</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4471.231687421535</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>4182.156460765733</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3927.471972559846</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W25" t="n">
-        <v>3804.031641025739</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X25" t="n">
-        <v>3576.042090127722</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y25" t="n">
-        <v>3355.249510984192</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2272.857469997002</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1983.7822433412</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084667</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>2884.660124662805</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3482.038612289356</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>808.8888553856866</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C31" t="n">
-        <v>808.8888553856866</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.329899359456</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>990.5373202159263</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6692,46 +6694,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.538274322277</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,16 +6952,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,19 +7022,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.53722908186</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153953</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741617</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>4227.652312159534</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>4227.652312159534</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V37" t="n">
-        <v>3972.967823953647</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953647</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912099</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.3929232910542</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>782.4567403631473</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
-        <v>632.3401009508116</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.041388121294</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>3205.31468543348</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>3036.378502505573</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>2886.261863093237</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>2738.348769510844</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>4151.857387650097</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>3897.17289944421</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>3607.755729407249</v>
       </c>
       <c r="X43" t="n">
-        <v>1363.885660588918</v>
+        <v>3607.755729407249</v>
       </c>
       <c r="Y43" t="n">
-        <v>1143.093081445388</v>
+        <v>3386.963150263719</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,28 +7660,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>538.7363435406111</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>162.0073097921337</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>105.8997516910995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124.9899273368046</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>22.63678056686646</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>117.6820817884485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>119.4047645948076</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>284.9289028870768</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>120.1578210480469</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>164.3170701178252</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>84.77391660562006</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>45.04089287986218</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>125.1956044930017</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>38.36786441186791</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>113.047316183739</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>171.2522535850787</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25360,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>6.257951202385016</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E40" t="n">
-        <v>145.8014946027473</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>135.8503182118945</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>107.2784330767827</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>24.63391537253412</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>850716.9735860755</v>
+        <v>859629.8648376816</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>836474.424157441</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574414</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516051</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516054</v>
-      </c>
-      <c r="C2" t="n">
-        <v>595255.2831516056</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.2847752541</v>
-      </c>
       <c r="M2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>137930.4104072219</v>
+      </c>
+      <c r="C4" t="n">
         <v>89134.17909312015</v>
       </c>
-      <c r="C4" t="n">
-        <v>89134.17909312018</v>
-      </c>
       <c r="D4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768816</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768821</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768854</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768861</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768856</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
+        <v>9947.144321768938</v>
+      </c>
+      <c r="P4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9947.144321768899</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-930557.5822305006</v>
+        <v>-750364.6832713812</v>
       </c>
       <c r="C6" t="n">
+        <v>194748.421884986</v>
+      </c>
+      <c r="D6" t="n">
         <v>398187.1634970922</v>
       </c>
-      <c r="D6" t="n">
-        <v>398187.1634970923</v>
-      </c>
       <c r="E6" t="n">
-        <v>148699.1488222229</v>
+        <v>148699.1488222232</v>
       </c>
       <c r="F6" t="n">
-        <v>474111.6106295784</v>
+        <v>474111.6106295786</v>
       </c>
       <c r="G6" t="n">
         <v>474111.6106295785</v>
@@ -26540,22 +26542,22 @@
         <v>474111.6106295783</v>
       </c>
       <c r="I6" t="n">
-        <v>474111.6106295781</v>
+        <v>474111.6106295782</v>
       </c>
       <c r="J6" t="n">
-        <v>256580.4082323007</v>
+        <v>306506.4328195956</v>
       </c>
       <c r="K6" t="n">
+        <v>425001.5179235236</v>
+      </c>
+      <c r="L6" t="n">
         <v>474111.6106295783</v>
       </c>
-      <c r="L6" t="n">
-        <v>474111.6106295781</v>
-      </c>
       <c r="M6" t="n">
-        <v>389056.5826940666</v>
+        <v>389056.5826940665</v>
       </c>
       <c r="N6" t="n">
-        <v>474111.6106295785</v>
+        <v>474111.6106295782</v>
       </c>
       <c r="O6" t="n">
         <v>474111.6106295784</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.2696554279943</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>283.7071874483097</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>112.9231294270429</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>20.4331335210575</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>64.42451046528001</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>284.3158674835754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>106.5005683153522</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>101.8793369498884</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>358.5862092445528</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>292.2286504446565</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>95.75354504635199</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>49.30991846980869</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -30523,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>381.2855185329316</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>196.3041720118997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>302.5540177178164</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496632</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>309.7666854143564</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>309.7666854143572</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P39" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>574.6535388222617</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>278.4880321229883</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>406.830144396991</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096294</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>249.9438064495983</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>57.74979223202556</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>171.2123056344831</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663299</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>171.2123056344822</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>171.212305634483</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P39" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>432.0572943778172</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317824</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2162622.742561266</v>
+        <v>2158568.616801887</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9722274.831187135</v>
+        <v>9722274.831187133</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>124.6607146442674</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>54.0120434614974</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>200.3155624761544</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>66.4005512133149</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>282.8791992932297</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>230.1832539220404</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>64.14647130913984</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>349.5745610625986</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>94.00928821139709</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>95.44509644451209</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>75.53083007380869</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>144.7250005831103</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>160.6789846282037</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>126.9927435506632</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>194.7686697604218</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,10 +2140,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>1.594095449514225</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.67415913389035</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362945</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>60.64713141731118</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417133</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.63637568893558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223627</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>33.38664646283016</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703312</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>45.17596778974989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444129</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>9.570729811036772</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>41.33703994142962</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1797.459220126684</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>1428.496703186272</v>
+        <v>549.0536009814539</v>
       </c>
       <c r="D2" t="n">
-        <v>1070.231004579522</v>
+        <v>190.7879023747034</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>190.7879023747034</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>183.8424016254999</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>172.1780553901929</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190806</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190806</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2184.059060190806</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>2184.059060190806</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2262.298126874724</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1296.192817233904</v>
+        <v>938.9442613508772</v>
       </c>
       <c r="C4" t="n">
-        <v>1127.256634305997</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="D4" t="n">
-        <v>977.1399948936614</v>
+        <v>619.8914390106346</v>
       </c>
       <c r="E4" t="n">
-        <v>977.1399948936614</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936614</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936614</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936614</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075599</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2060.788222079483</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1771.669884583321</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.985396377434</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="W4" t="n">
-        <v>1516.985396377434</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="X4" t="n">
-        <v>1516.985396377434</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y4" t="n">
-        <v>1296.192817233904</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1879.829578210441</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C5" t="n">
-        <v>1510.867061270029</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="D5" t="n">
-        <v>1510.867061270029</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="E5" t="n">
-        <v>1125.078808671785</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>714.0929038821773</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>299.0204537271738</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250374</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>2266.429418274563</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,22 +4664,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.1964793938714</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>278.1964793938714</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>278.1964793938714</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>278.1964793938714</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>131.3065318959611</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>680.6375233676413</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>459.8449442241111</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1616.654488422265</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1616.654488422265</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1258.388789815515</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>872.6005372172704</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>461.6146324276628</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>2003.254328486387</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228012</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>724.9564054771553</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>724.9564054771553</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>574.8397660648195</v>
+        <v>583.826112045951</v>
       </c>
       <c r="E10" t="n">
-        <v>574.8397660648195</v>
+        <v>435.9130184635579</v>
       </c>
       <c r="F10" t="n">
-        <v>427.9498185669091</v>
+        <v>289.0230709656475</v>
       </c>
       <c r="G10" t="n">
-        <v>260.2469819416281</v>
+        <v>289.0230709656475</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>142.8058841835053</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.594421205412</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>906.604870307395</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>906.604870307395</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>1097.964082041485</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>929.0278991135781</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>778.9112597012423</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>630.9981661188492</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797704</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235161</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1789.822296052215</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1500.405126015255</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1500.405126015255</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1279.612546871725</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>766.1780053015053</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>618.2649117191122</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>471.3749642212018</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>304.1788649360818</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5536,25 +5536,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2183.181349771631</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,31 +5764,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532803</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1432.091168225067</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1204.10161732705</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.30903818352</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192512</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>557.5558870561823</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1187.98648192797</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>959.9969310299522</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523796</v>
+        <v>739.204351886422</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,49 +6214,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C34" t="n">
-        <v>733.4550657171301</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="D34" t="n">
-        <v>583.3384263047943</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,25 +7423,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7453,10 +7453,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3205.31468543348</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>3036.378502505573</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>2886.261863093237</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>2738.348769510844</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>4151.857387650097</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>3897.17289944421</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>3607.755729407249</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>3607.755729407249</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>3386.963150263719</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.0073097921337</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.6960474398209442</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>125.5054897610405</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>13.30196929556064</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>22.63678056686646</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>284.9289028870768</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.1578210480469</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>43.2652634529496</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>84.77391660562006</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125.1956044930017</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.4693302300326</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>113.047316183739</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392193769</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>135.8503182118945</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>107.2784330767827</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.424157441</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574414</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574414</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>585181.2847752547</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
@@ -26368,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.896221193905462e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768841</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768841</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768861</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26444,19 +26444,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768817</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768956</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
+        <v>9947.144321768938</v>
+      </c>
+      <c r="O4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9947.144321768938</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750364.6832713812</v>
+        <v>-750364.6832713813</v>
       </c>
       <c r="C6" t="n">
-        <v>194748.421884986</v>
+        <v>194748.4218849863</v>
       </c>
       <c r="D6" t="n">
-        <v>398187.1634970922</v>
+        <v>398187.1634970921</v>
       </c>
       <c r="E6" t="n">
-        <v>148699.1488222232</v>
+        <v>148351.7695678658</v>
       </c>
       <c r="F6" t="n">
-        <v>474111.6106295786</v>
+        <v>473764.2313752215</v>
       </c>
       <c r="G6" t="n">
-        <v>474111.6106295785</v>
+        <v>473764.2313752215</v>
       </c>
       <c r="H6" t="n">
-        <v>474111.6106295783</v>
+        <v>473764.2313752212</v>
       </c>
       <c r="I6" t="n">
-        <v>474111.6106295782</v>
+        <v>473764.2313752215</v>
       </c>
       <c r="J6" t="n">
-        <v>306506.4328195956</v>
+        <v>306159.0535652389</v>
       </c>
       <c r="K6" t="n">
-        <v>425001.5179235236</v>
+        <v>424654.138669167</v>
       </c>
       <c r="L6" t="n">
-        <v>474111.6106295783</v>
+        <v>473764.2313752217</v>
       </c>
       <c r="M6" t="n">
-        <v>389056.5826940665</v>
+        <v>388709.2034397094</v>
       </c>
       <c r="N6" t="n">
-        <v>474111.6106295782</v>
+        <v>473764.2313752216</v>
       </c>
       <c r="O6" t="n">
-        <v>474111.6106295784</v>
+        <v>473764.2313752213</v>
       </c>
       <c r="P6" t="n">
-        <v>474111.6106295784</v>
+        <v>473764.2313752213</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26792,31 +26792,31 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>257.2696554279943</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>247.006509100908</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>20.4331335210575</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>185.7370921105131</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>99.05117077903208</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>64.42451046528001</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>101.8793369498884</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27824,22 +27824,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>61.34716459085485</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>292.2286504446565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>49.30991846980869</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>20.8215903360294</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28277,7 +28277,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-4.228482943101975e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-8.319358994805075e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>4.228482943101975e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33183,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>278.4880321229883</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191273</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191357</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317824</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>55.9645526312509</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2158568.616801887</v>
+        <v>2160329.147104673</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9722274.831187133</v>
+        <v>9722274.831187136</v>
       </c>
     </row>
     <row r="11">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>237.2773748619111</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>54.0120434614974</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>282.8791992932297</v>
+        <v>282.8791992932281</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247499</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>217.0914199928473</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>349.5745610625986</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>214.8185470786303</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>54.26003672910126</v>
       </c>
       <c r="I10" t="n">
-        <v>75.53083007380869</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>144.7250005831103</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>22.10695458833866</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>254.6047837555167</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>266.0941464746422</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>242.9192109362945</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.01175877060142</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417133</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>26.05480806223627</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>140.5758943588665</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703312</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218655</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="C2" t="n">
-        <v>549.0536009814539</v>
+        <v>1131.265000636709</v>
       </c>
       <c r="D2" t="n">
-        <v>190.7879023747034</v>
+        <v>772.9993020299582</v>
       </c>
       <c r="E2" t="n">
-        <v>190.7879023747034</v>
+        <v>772.9993020299582</v>
       </c>
       <c r="F2" t="n">
-        <v>183.8424016254999</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>172.1780553901929</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218655</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429757</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744474</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4485,10 +4485,10 @@
         <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1517.887535471215</v>
+        <v>1517.887535471213</v>
       </c>
       <c r="C5" t="n">
-        <v>1517.887535471215</v>
+        <v>1517.887535471213</v>
       </c>
       <c r="D5" t="n">
-        <v>1517.887535471215</v>
+        <v>1517.887535471213</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912086</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810547</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329462</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001386</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060168</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066529</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535335</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535335</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811061</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999791</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387279</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332724</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601574</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927755</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064296</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619334</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431605</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199862</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471661</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266128</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501174</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.654488422265</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C8" t="n">
-        <v>1616.654488422265</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1258.388789815515</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>872.6005372172704</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>461.6146324276628</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3108.617390216615</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2777.554502873044</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723278</v>
+        <v>2424.78584760293</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>2051.32008934185</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486387</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228012</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4953,10 +4953,10 @@
         <v>289.0230709656475</v>
       </c>
       <c r="G10" t="n">
-        <v>289.0230709656475</v>
+        <v>121.3202343403665</v>
       </c>
       <c r="H10" t="n">
-        <v>142.8058841835053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -5023,67 +5023,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1097.964082041485</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.0278991135781</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="D13" t="n">
-        <v>778.9112597012423</v>
+        <v>719.8578917311354</v>
       </c>
       <c r="E13" t="n">
-        <v>630.9981661188492</v>
+        <v>571.9447981487423</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>425.0548506508319</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>257.8587513657118</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>116.1469202079099</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797704</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258102</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258102</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052215</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015255</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>1500.405126015255</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>1279.612546871725</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5269,43 +5269,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="20">
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
         <v>484.8112968429802</v>
@@ -5904,10 +5904,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5937,25 +5937,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1775.724818122104</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1521.040329916217</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1231.623159879256</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1003.633608981239</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>782.841029837709</v>
       </c>
     </row>
     <row r="23">
@@ -5968,43 +5968,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192512</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6013,16 +6013,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>557.5558870561823</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1187.98648192797</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>959.9969310299522</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>739.204351886422</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075798</v>
@@ -6238,25 +6238,25 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>302.4387812932954</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>135.2426820081753</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>135.2426820081753</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474266</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474266</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>261.8464821474266</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6654,19 +6654,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6700,28 +6700,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400758</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121689</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121689</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121689</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121689</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6864,46 +6864,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832667</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487572</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510513</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854711</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648824</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611863</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703155</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7077,16 +7077,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7326,16 +7326,16 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.48334686148155e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6960474398209442</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>59.15888173022687</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>31.91821458107427</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,13 +24177,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>20.09032791460197</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>43.2652634529496</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>40.25407754796409</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>139.4693302300326</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392193769</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>45.44677382459263</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574414</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574414</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574414</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>836474.424157441</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752541</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752544</v>
-      </c>
       <c r="H2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752544</v>
@@ -26343,13 +26343,13 @@
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
@@ -26368,22 +26368,22 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.7416121051</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7.254361662489829e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>2.896221193905462e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605448</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312036</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768841</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768841</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768861</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26444,16 +26444,16 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768817</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768956</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768938</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750364.6832713813</v>
+        <v>-750364.683271381</v>
       </c>
       <c r="C6" t="n">
-        <v>194748.4218849863</v>
+        <v>194748.4218849868</v>
       </c>
       <c r="D6" t="n">
-        <v>398187.1634970921</v>
+        <v>398187.1634970914</v>
       </c>
       <c r="E6" t="n">
-        <v>148351.7695678658</v>
+        <v>148664.4108967874</v>
       </c>
       <c r="F6" t="n">
-        <v>473764.2313752215</v>
+        <v>474076.8727041428</v>
       </c>
       <c r="G6" t="n">
-        <v>473764.2313752215</v>
+        <v>474076.8727041421</v>
       </c>
       <c r="H6" t="n">
-        <v>473764.2313752212</v>
+        <v>474076.8727041426</v>
       </c>
       <c r="I6" t="n">
-        <v>473764.2313752215</v>
+        <v>474076.8727041429</v>
       </c>
       <c r="J6" t="n">
-        <v>306159.0535652389</v>
+        <v>306471.6948941601</v>
       </c>
       <c r="K6" t="n">
-        <v>424654.138669167</v>
+        <v>424966.7799980881</v>
       </c>
       <c r="L6" t="n">
-        <v>473764.2313752217</v>
+        <v>474076.8727041426</v>
       </c>
       <c r="M6" t="n">
-        <v>388709.2034397094</v>
+        <v>389021.8447686306</v>
       </c>
       <c r="N6" t="n">
-        <v>473764.2313752216</v>
+        <v>474076.8727041431</v>
       </c>
       <c r="O6" t="n">
-        <v>473764.2313752213</v>
+        <v>474076.8727041426</v>
       </c>
       <c r="P6" t="n">
-        <v>473764.2313752213</v>
+        <v>474076.8727041426</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757583</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
+        <v>190.8166233022534</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="K4" t="n">
         <v>190.8166233022537</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="K4" t="n">
-        <v>190.8166233022539</v>
-      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>169.5986708798003</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>247.006509100908</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>99.05117077903208</v>
+        <v>99.05117077903367</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276557</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>61.34716459085485</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27906,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>36.17662488027167</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>90.49497818521952</v>
       </c>
       <c r="I10" t="n">
-        <v>20.8215903360294</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28277,7 +28277,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-4.228482943101975e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-8.319358994805075e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>4.228482943101975e-12</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817577</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34795,10 +34795,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191273</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191357</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010452</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
